--- a/InsuranceNow_v1.0/testData/providerData.xlsx
+++ b/InsuranceNow_v1.0/testData/providerData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRajendran\InsuranceNow_v1.0\InsuranceNow_v1.0\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRajendran\git\seleniumJavaRepo\InsuranceNow_v1.0\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAADB1B-6981-4379-932B-081232749C6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA563F8-A5C2-43F2-A174-CD0500C0F576}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22020" windowHeight="4356" xr2:uid="{838B1716-2769-449B-83C2-A98D2BE273E4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>First Name</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Role</t>
   </si>
   <si>
-    <t>Michelle Ivicak</t>
-  </si>
-  <si>
     <t>srajendran</t>
   </si>
   <si>
@@ -63,122 +60,35 @@
     <t>password</t>
   </si>
   <si>
-    <t>Adjuster I</t>
+    <t xml:space="preserve">Takisha </t>
+  </si>
+  <si>
+    <t>Pate</t>
+  </si>
+  <si>
+    <t>386-610-9415</t>
+  </si>
+  <si>
+    <t>W459400</t>
+  </si>
+  <si>
+    <t>Takisha.Pate@sedgwick.com</t>
+  </si>
+  <si>
+    <t>Will Jordan</t>
+  </si>
+  <si>
+    <t>ADJ I</t>
   </si>
   <si>
     <t>Nov@2024!</t>
-  </si>
-  <si>
-    <t>Brittney</t>
-  </si>
-  <si>
-    <t>Stubbs</t>
-  </si>
-  <si>
-    <t>904-346-5812</t>
-  </si>
-  <si>
-    <t>W521152</t>
-  </si>
-  <si>
-    <t>Msichana</t>
-  </si>
-  <si>
-    <t>Thompson</t>
-  </si>
-  <si>
-    <t>469-496-2289</t>
-  </si>
-  <si>
-    <t>W475008</t>
-  </si>
-  <si>
-    <t>Brittney.Stubbs@sedgwick.com</t>
-  </si>
-  <si>
-    <t>Msichana.Thompson@Sedgwick.com</t>
-  </si>
-  <si>
-    <t>Ivana</t>
-  </si>
-  <si>
-    <t>Gowdy</t>
-  </si>
-  <si>
-    <t>813-851-4110</t>
-  </si>
-  <si>
-    <t>G134176</t>
-  </si>
-  <si>
-    <t>igowdy@ottersolv.com</t>
-  </si>
-  <si>
-    <t>AureagusHall</t>
-  </si>
-  <si>
-    <t>Shannon</t>
-  </si>
-  <si>
-    <t>Lowery</t>
-  </si>
-  <si>
-    <t>W123422</t>
-  </si>
-  <si>
-    <t>slowery@ottersolv.com</t>
-  </si>
-  <si>
-    <t>Briana</t>
-  </si>
-  <si>
-    <t>Corley</t>
-  </si>
-  <si>
-    <t>W889070</t>
-  </si>
-  <si>
-    <t>bcorley@ottersolv.com</t>
-  </si>
-  <si>
-    <t>MidoriGuerrier</t>
-  </si>
-  <si>
-    <t>Kristy</t>
-  </si>
-  <si>
-    <t>Bassa</t>
-  </si>
-  <si>
-    <t>P014744</t>
-  </si>
-  <si>
-    <t>kbassa@ottersolv.com</t>
-  </si>
-  <si>
-    <t>BethPopkins</t>
-  </si>
-  <si>
-    <t>Quentin</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>W433268</t>
-  </si>
-  <si>
-    <t>qtaylor@ottersolv.com</t>
-  </si>
-  <si>
-    <t>TiffanyPerryman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +108,14 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -244,18 +162,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -568,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C1CEF3-1EB1-498B-ABFA-BD26A2AA477F}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="14.4"/>
@@ -590,10 +511,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -622,225 +543,41 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="4">
+        <v>46660</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{64C98DF4-47BF-40C9-9891-8C8A5EDEE1D2}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{C1FBD1D3-5FEF-4E6E-AE50-C1BF092902F0}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{61B3619F-69DC-494F-8FB9-3505FAEFB060}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{734E22E6-D010-4425-9F73-793D0BD899DB}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{8ACC00EB-961A-4AA1-A0DA-7A7A86C086F6}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{BCE98322-BE1B-42BB-9DB5-52409709DE26}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{26FBCB83-4CA4-42C1-82B3-521ECA7A9A68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/InsuranceNow_v1.0/testData/providerData.xlsx
+++ b/InsuranceNow_v1.0/testData/providerData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRajendran\git\seleniumJavaRepo\InsuranceNow_v1.0\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srajendran\git\seleniumJavaRepo\InsuranceNow_v1.0\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA563F8-A5C2-43F2-A174-CD0500C0F576}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F864FF7-C8DC-432A-933E-7E25997D74C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22020" windowHeight="4356" xr2:uid="{838B1716-2769-449B-83C2-A98D2BE273E4}"/>
+    <workbookView xWindow="-38520" yWindow="-1635" windowWidth="38640" windowHeight="21120" xr2:uid="{838B1716-2769-449B-83C2-A98D2BE273E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>First Name</t>
   </si>
@@ -81,14 +81,62 @@
     <t>ADJ I</t>
   </si>
   <si>
-    <t>Nov@2024!</t>
+    <t>Irma</t>
+  </si>
+  <si>
+    <t>Song</t>
+  </si>
+  <si>
+    <t>813-851-4110</t>
+  </si>
+  <si>
+    <t>W978543</t>
+  </si>
+  <si>
+    <t>isong@ottersolv.com</t>
+  </si>
+  <si>
+    <t>Kristal Fisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan </t>
+  </si>
+  <si>
+    <t>Loper</t>
+  </si>
+  <si>
+    <t>G174803</t>
+  </si>
+  <si>
+    <t>rloper@ottersolv.com</t>
+  </si>
+  <si>
+    <t>Hillary Rape</t>
+  </si>
+  <si>
+    <t>Briana</t>
+  </si>
+  <si>
+    <t>Carnes</t>
+  </si>
+  <si>
+    <t>G177544</t>
+  </si>
+  <si>
+    <t>bcarnes@ottersolv.com</t>
+  </si>
+  <si>
+    <t>Tiffany Perryman</t>
+  </si>
+  <si>
+    <t>November@2024!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -174,6 +222,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -193,9 +242,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -233,7 +282,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -339,7 +388,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -481,7 +530,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -489,13 +538,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C1CEF3-1EB1-498B-ABFA-BD26A2AA477F}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
@@ -509,7 +558,7 @@
     <col min="10" max="10" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -541,43 +590,136 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="4">
         <v>46660</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{64C98DF4-47BF-40C9-9891-8C8A5EDEE1D2}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{046DC254-C4A1-4DB9-BFFE-71428513D6B5}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{052282E5-FE54-41CE-8D6D-C8255855C6BC}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{6B076531-60C3-4EDD-A642-A7D711B3480E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/InsuranceNow_v1.0/testData/providerData.xlsx
+++ b/InsuranceNow_v1.0/testData/providerData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srajendran\git\seleniumJavaRepo\InsuranceNow_v1.0\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F864FF7-C8DC-432A-933E-7E25997D74C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8405DF2D-7BEF-4C77-954F-2AD3A6035CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-1635" windowWidth="38640" windowHeight="21120" xr2:uid="{838B1716-2769-449B-83C2-A98D2BE273E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{838B1716-2769-449B-83C2-A98D2BE273E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>First Name</t>
   </si>
@@ -60,76 +60,64 @@
     <t>password</t>
   </si>
   <si>
-    <t xml:space="preserve">Takisha </t>
-  </si>
-  <si>
-    <t>Pate</t>
-  </si>
-  <si>
-    <t>386-610-9415</t>
-  </si>
-  <si>
-    <t>W459400</t>
-  </si>
-  <si>
-    <t>Takisha.Pate@sedgwick.com</t>
-  </si>
-  <si>
-    <t>Will Jordan</t>
-  </si>
-  <si>
     <t>ADJ I</t>
   </si>
   <si>
-    <t>Irma</t>
-  </si>
-  <si>
-    <t>Song</t>
-  </si>
-  <si>
-    <t>813-851-4110</t>
-  </si>
-  <si>
-    <t>W978543</t>
-  </si>
-  <si>
-    <t>isong@ottersolv.com</t>
-  </si>
-  <si>
     <t>Kristal Fisher</t>
   </si>
   <si>
-    <t xml:space="preserve">Ryan </t>
-  </si>
-  <si>
-    <t>Loper</t>
-  </si>
-  <si>
-    <t>G174803</t>
-  </si>
-  <si>
-    <t>rloper@ottersolv.com</t>
-  </si>
-  <si>
     <t>Hillary Rape</t>
   </si>
   <si>
-    <t>Briana</t>
-  </si>
-  <si>
-    <t>Carnes</t>
-  </si>
-  <si>
-    <t>G177544</t>
-  </si>
-  <si>
-    <t>bcarnes@ottersolv.com</t>
-  </si>
-  <si>
-    <t>Tiffany Perryman</t>
-  </si>
-  <si>
     <t>November@2024!</t>
+  </si>
+  <si>
+    <t>Helen</t>
+  </si>
+  <si>
+    <t>Kebede</t>
+  </si>
+  <si>
+    <t>689 262 7223</t>
+  </si>
+  <si>
+    <t>W854695</t>
+  </si>
+  <si>
+    <t>hkebede@ottersolv.com</t>
+  </si>
+  <si>
+    <t>Lesly Dorcely</t>
+  </si>
+  <si>
+    <t>Delonica</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>689 262 7228</t>
+  </si>
+  <si>
+    <t>G183277</t>
+  </si>
+  <si>
+    <t>djames@ottersolv.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashley </t>
+  </si>
+  <si>
+    <t>Hillman</t>
+  </si>
+  <si>
+    <t>689 262 7229</t>
+  </si>
+  <si>
+    <t>W905068</t>
+  </si>
+  <si>
+    <t>ahillman@ottersolv.com</t>
   </si>
 </sst>
 </file>
@@ -538,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C1CEF3-1EB1-498B-ABFA-BD26A2AA477F}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,31 +583,31 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G2" s="4">
         <v>46660</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -627,29 +615,29 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -657,69 +645,38 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{64C98DF4-47BF-40C9-9891-8C8A5EDEE1D2}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{046DC254-C4A1-4DB9-BFFE-71428513D6B5}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{052282E5-FE54-41CE-8D6D-C8255855C6BC}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{6B076531-60C3-4EDD-A642-A7D711B3480E}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{046DC254-C4A1-4DB9-BFFE-71428513D6B5}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{052282E5-FE54-41CE-8D6D-C8255855C6BC}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{6B076531-60C3-4EDD-A642-A7D711B3480E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/InsuranceNow_v1.0/testData/providerData.xlsx
+++ b/InsuranceNow_v1.0/testData/providerData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srajendran\git\seleniumJavaRepo\InsuranceNow_v1.0\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8405DF2D-7BEF-4C77-954F-2AD3A6035CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DED198D-D1D7-4888-98DD-B7CACCB099C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{838B1716-2769-449B-83C2-A98D2BE273E4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>First Name</t>
   </si>
@@ -60,64 +60,28 @@
     <t>password</t>
   </si>
   <si>
-    <t>ADJ I</t>
-  </si>
-  <si>
-    <t>Kristal Fisher</t>
-  </si>
-  <si>
-    <t>Hillary Rape</t>
-  </si>
-  <si>
     <t>November@2024!</t>
   </si>
   <si>
-    <t>Helen</t>
-  </si>
-  <si>
-    <t>Kebede</t>
-  </si>
-  <si>
-    <t>689 262 7223</t>
-  </si>
-  <si>
-    <t>W854695</t>
-  </si>
-  <si>
-    <t>hkebede@ottersolv.com</t>
-  </si>
-  <si>
-    <t>Lesly Dorcely</t>
-  </si>
-  <si>
-    <t>Delonica</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>689 262 7228</t>
-  </si>
-  <si>
-    <t>G183277</t>
-  </si>
-  <si>
-    <t>djames@ottersolv.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ashley </t>
-  </si>
-  <si>
-    <t>Hillman</t>
-  </si>
-  <si>
-    <t>689 262 7229</t>
-  </si>
-  <si>
-    <t>W905068</t>
-  </si>
-  <si>
-    <t>ahillman@ottersolv.com</t>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Freise</t>
+  </si>
+  <si>
+    <t>901-237-5634</t>
+  </si>
+  <si>
+    <t>W114228</t>
+  </si>
+  <si>
+    <t>Jennifer.Freise@sedgwick.com</t>
+  </si>
+  <si>
+    <t>Don Freihoefer</t>
+  </si>
+  <si>
+    <t>ADJ II</t>
   </si>
 </sst>
 </file>
@@ -202,15 +166,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -526,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C1CEF3-1EB1-498B-ABFA-BD26A2AA477F}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,100 +546,38 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="4">
+        <v>45900</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" s="4">
-        <v>46660</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{046DC254-C4A1-4DB9-BFFE-71428513D6B5}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{052282E5-FE54-41CE-8D6D-C8255855C6BC}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{6B076531-60C3-4EDD-A642-A7D711B3480E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>